--- a/cs5130/LieCommutator.xlsx
+++ b/cs5130/LieCommutator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>xa</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>(xcyb-xbyc, xcya-xayc, xbya-xayb)</t>
+  </si>
+  <si>
+    <t>(J1, J2, J3)</t>
   </si>
 </sst>
 </file>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,6 +917,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
